--- a/Consumption_Modules_PCB_Submission.xlsx
+++ b/Consumption_Modules_PCB_Submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\euler\Documents\Research\Mixotrophy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A03B8C-06C9-415A-B8C4-22FDC44C610B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05266B88-8684-42DE-9110-9E58C56EF6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DFFC6271-70B4-7649-A99E-1F8F56F21DAE}"/>
   </bookViews>
@@ -138,12 +138,6 @@
     <t>dfG</t>
   </si>
   <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
     <t>HCO3</t>
   </si>
   <si>
@@ -1123,6 +1117,12 @@
   </si>
   <si>
     <t>kegg:C01013</t>
+  </si>
+  <si>
+    <t>CHARGE</t>
+  </si>
+  <si>
+    <t>UNVERTAINTY</t>
   </si>
 </sst>
 </file>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488579AE-1461-2D48-91B4-5ABF50789CEC}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:J46"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1570,24 +1570,24 @@
         <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>28</v>
@@ -1610,16 +1610,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>29</v>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>29</v>
@@ -1674,16 +1674,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>29</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>28</v>
@@ -1738,16 +1738,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
@@ -1776,10 +1776,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>29</v>
@@ -1808,10 +1808,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
@@ -1834,16 +1834,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
@@ -1866,16 +1866,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>29</v>
@@ -1904,10 +1904,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>29</v>
@@ -1930,16 +1930,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>29</v>
@@ -1968,10 +1968,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>29</v>
@@ -2000,10 +2000,10 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>29</v>
@@ -2032,10 +2032,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
@@ -2058,16 +2058,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -2086,16 +2086,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>29</v>
@@ -2114,16 +2114,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
@@ -2170,16 +2170,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>29</v>
@@ -2198,16 +2198,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
@@ -2226,16 +2226,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>29</v>
@@ -2254,16 +2254,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>29</v>
@@ -2282,16 +2282,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2310,16 +2310,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>29</v>
@@ -2338,16 +2338,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>29</v>
@@ -2366,16 +2366,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>29</v>
@@ -2394,16 +2394,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>29</v>
@@ -2422,16 +2422,16 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>29</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>29</v>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>29</v>
@@ -2506,16 +2506,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>29</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>29</v>
@@ -2562,16 +2562,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>29</v>
@@ -2590,16 +2590,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>29</v>
@@ -2618,16 +2618,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>29</v>
@@ -2646,16 +2646,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>28</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>28</v>
@@ -2710,16 +2710,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>29</v>
@@ -2738,16 +2738,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>28</v>
@@ -2766,16 +2766,16 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>29</v>
@@ -2794,16 +2794,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="D43" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>29</v>
@@ -2822,16 +2822,16 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>360</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>29</v>
@@ -2850,16 +2850,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>29</v>
@@ -2878,16 +2878,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>29</v>
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CF2DEE-32E3-BA42-A8F2-CF88F6CB388E}">
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A43" sqref="A1:K58"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2967,23 +2967,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
@@ -2998,23 +2998,23 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3" t="s">
@@ -3029,23 +3029,23 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
@@ -3060,23 +3060,23 @@
     </row>
     <row r="5" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>27</v>
@@ -3093,23 +3093,23 @@
     </row>
     <row r="6" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>27</v>
@@ -3126,23 +3126,23 @@
     </row>
     <row r="7" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>27</v>
@@ -3159,23 +3159,23 @@
     </row>
     <row r="8" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>27</v>
@@ -3192,23 +3192,23 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>27</v>
@@ -3225,23 +3225,23 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>27</v>
@@ -3258,23 +3258,23 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>27</v>
@@ -3291,23 +3291,23 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>27</v>
@@ -3324,23 +3324,23 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>27</v>
@@ -3357,23 +3357,23 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>27</v>
@@ -3390,23 +3390,23 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>27</v>
@@ -3423,23 +3423,23 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
@@ -3456,23 +3456,23 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
@@ -3489,23 +3489,23 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>27</v>
@@ -3522,23 +3522,23 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
@@ -3555,23 +3555,23 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>27</v>
@@ -3588,23 +3588,23 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>27</v>
@@ -3621,23 +3621,23 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>27</v>
@@ -3654,23 +3654,23 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>27</v>
@@ -3687,23 +3687,23 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>27</v>
@@ -3720,23 +3720,23 @@
     </row>
     <row r="25" spans="1:11" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3" t="s">
@@ -3751,23 +3751,23 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3" t="s">
@@ -3782,23 +3782,23 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>27</v>
@@ -3815,23 +3815,23 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>27</v>
@@ -3848,23 +3848,23 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H29" s="5">
         <v>-22.5</v>
@@ -3881,21 +3881,21 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H30" s="9">
         <v>20.6</v>
@@ -3912,23 +3912,23 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H31" s="9">
         <v>-66.8</v>
@@ -3945,23 +3945,23 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H32" s="9">
         <v>-41.2</v>
@@ -3978,23 +3978,23 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H33" s="9">
         <v>-24</v>
@@ -4011,23 +4011,23 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H34" s="9">
         <v>-29.8</v>
@@ -4044,23 +4044,23 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H35" s="9">
         <v>-10.9</v>
@@ -4077,19 +4077,19 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H36" s="5">
         <v>30.5</v>
@@ -4106,19 +4106,19 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H37" s="5">
         <v>-51.7</v>
@@ -4135,23 +4135,23 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H38" s="5">
         <v>-22.5</v>
@@ -4168,19 +4168,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H39" s="9">
         <v>-16.7</v>
@@ -4197,19 +4197,19 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H40" s="9">
         <v>7.1</v>
@@ -4226,19 +4226,19 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -4276,19 +4276,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H43" s="5">
         <v>-4.5999999999999996</v>
@@ -4305,19 +4305,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H44" s="5">
         <v>-26</v>
@@ -4334,19 +4334,19 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H45" s="5">
         <v>0.4</v>
@@ -4363,19 +4363,19 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H46" s="5">
         <v>15.6</v>
@@ -4392,19 +4392,19 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H47" s="5">
         <v>-28.6</v>
@@ -4421,19 +4421,19 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9" t="s">
@@ -4448,19 +4448,19 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9" t="s">
@@ -4475,19 +4475,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H50" s="9">
         <v>21</v>
@@ -4504,19 +4504,19 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H51" s="9">
         <v>-3.4</v>
@@ -4533,19 +4533,19 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H52" s="9">
         <v>-14</v>
@@ -4562,19 +4562,19 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H53" s="9">
         <v>-22.3</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H54" s="5">
         <v>-3.8</v>
@@ -4620,19 +4620,19 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H55" s="5">
         <v>35.1</v>
@@ -4649,19 +4649,19 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H56" s="5">
         <v>-3.3</v>
@@ -4678,19 +4678,19 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H57" s="9">
         <v>18.100000000000001</v>
@@ -4707,19 +4707,19 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H58" s="9">
         <v>-20</v>
